--- a/docs/InhoudGWSWpersleidingen_V1_1.xlsx
+++ b/docs/InhoudGWSWpersleidingen_V1_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wouter/gwsw/gwsw-persleidingen/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\projecten_p4uw\RIONED36 (GWSW modellering)\GWSW persleidingen\GitHub\gwsw-persleidingen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765DAD57-41C1-DA4D-86B7-5D41937D3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDCB345-420E-407F-8C96-8A1AFC4E1480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchie" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="199">
   <si>
     <t>Persleidingsysteem</t>
   </si>
@@ -622,6 +622,18 @@
   </si>
   <si>
     <t>wat wordt hier bedoeld?</t>
+  </si>
+  <si>
+    <t>Lokale verliezen appendages</t>
+  </si>
+  <si>
+    <t>Energieverliescoefficient</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>Energieverlies coëfficiënten voor lokale verliezen</t>
   </si>
 </sst>
 </file>
@@ -705,7 +717,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1037,30 +1049,30 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -1078,7 +1090,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1146,29 +1158,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923A1064-2E2D-45EF-9F4D-B4C96C380D17}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F36" sqref="A36:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="68.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="3:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -1222,7 +1234,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -1236,7 +1248,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>31</v>
       </c>
@@ -1267,7 +1279,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>27</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>35</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
@@ -1318,7 +1330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>55</v>
       </c>
@@ -1332,7 +1344,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>41</v>
       </c>
@@ -1346,7 +1358,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -1360,7 +1372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -1374,7 +1386,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>40</v>
       </c>
@@ -1391,7 +1403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -1442,7 +1454,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>23</v>
       </c>
@@ -1459,7 +1471,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +1488,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1505,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1519,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>37</v>
       </c>
@@ -1521,7 +1533,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>39</v>
       </c>
@@ -1535,18 +1547,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -1586,7 +1598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>76</v>
       </c>
@@ -1600,7 +1612,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>77</v>
       </c>
@@ -1614,7 +1626,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>80</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>78</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -1659,7 +1671,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -1682,7 +1694,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>122</v>
       </c>
@@ -1699,7 +1711,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>122</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -1730,7 +1742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>125</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>126</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>129</v>
       </c>
@@ -1827,7 +1839,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -1850,7 +1862,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>137</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>139</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>142</v>
       </c>
@@ -1904,7 +1916,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -1924,7 +1936,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>83</v>
       </c>
@@ -1981,7 +1993,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>83</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>83</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -2029,7 +2041,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -2049,7 +2061,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -2109,7 +2121,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>167</v>
       </c>
@@ -2129,7 +2141,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>169</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>173</v>
       </c>
@@ -2160,7 +2172,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -2174,14 +2186,34 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>197</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/docs/InhoudGWSWpersleidingen_V1_1.xlsx
+++ b/docs/InhoudGWSWpersleidingen_V1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\projecten_p4uw\RIONED36 (GWSW modellering)\GWSW persleidingen\GitHub\gwsw-persleidingen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDCB345-420E-407F-8C96-8A1AFC4E1480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA672D-529F-46EB-AC89-F2B7E6B4C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="213">
   <si>
     <t>Persleidingsysteem</t>
   </si>
@@ -381,9 +381,6 @@
     <t>https://data.gwsw.nl/?menu_item=classes&amp;item=../../def/1.6/Basis/Wibonthema</t>
   </si>
   <si>
-    <t>Risicoklasse</t>
-  </si>
-  <si>
     <t>Deelliner</t>
   </si>
   <si>
@@ -405,24 +402,9 @@
     <t>Toevoegen aanlegdiepte</t>
   </si>
   <si>
-    <t xml:space="preserve">In geval van calamiteit is het handig afvoerend debiet te weten </t>
-  </si>
-  <si>
     <t>Eigenaarschap</t>
   </si>
   <si>
-    <t xml:space="preserve">nadenken over risicoklassen (Thomas &amp; frans) </t>
-  </si>
-  <si>
-    <t>Relining en voorkomen dat je oorspronkelijke gegevens overschrijft</t>
-  </si>
-  <si>
-    <t>stuk tussenuit halen en vervangen. Ik ben benieuwd waar al onze breuken plaats vonden</t>
-  </si>
-  <si>
-    <t>Bestaat nog niet. Bestaande buis vervangen is gewoon nieuw 'buisdeel'</t>
-  </si>
-  <si>
     <t>wandruwheid per materiaal</t>
   </si>
   <si>
@@ -468,18 +450,12 @@
     <t>BEEL (Richtlijn beoordeling externe effecten leidingen): methode om een risico inschatting te maken</t>
   </si>
   <si>
-    <t>Iets specifieker maken</t>
-  </si>
-  <si>
     <t>Locatie inprikkers op persleidingen</t>
   </si>
   <si>
     <t>Inprikker</t>
   </si>
   <si>
-    <t>Kenmerk van mechanische leidingen. Gaat nu alleen nog om verhoogd risico bij ontgraven Ja/Nee. Aanpassen naar 'Risicoklasse'? Hoe wil je dat generiek maken dat het nuttig is uit te wisselen? Je kan een leiding wel deel uit laten maken van een risicogebied (met b.v. een dijk, watergang, spoorlijn, etc.)</t>
-  </si>
-  <si>
     <t>Leidingen door waterkeringen beleggen</t>
   </si>
   <si>
@@ -489,24 +465,12 @@
     <t>Voorziet Risicogebied al in de behoefte? Kunnen ook b.v. dijken of spoorlijnen omvatten</t>
   </si>
   <si>
-    <t xml:space="preserve">   Oorspronkelijk </t>
-  </si>
-  <si>
-    <t>Wijze van inwinning + datum</t>
-  </si>
-  <si>
     <t>Perceelaansluitpunt heeft al eenpunt, invoer (debiet), vergunningsnummer en lozingseisen. subtype inprikker maken?</t>
   </si>
   <si>
-    <t>Persleidingincidenten</t>
-  </si>
-  <si>
     <t>Persleidingincidenten overnemen</t>
   </si>
   <si>
-    <t>STUIP modellering conform Wouter, Johan en Marinus</t>
-  </si>
-  <si>
     <t>Hoeveel leiding is gezakt (b.v. na werkzaamheden)</t>
   </si>
   <si>
@@ -516,9 +480,6 @@
     <t>Aan de hand van wijze + datum inwinning zijn verschillende dieptemeters (Z-coordinaten) in de tijd mee te geven</t>
   </si>
   <si>
-    <t>Johan: Missen we coating?</t>
-  </si>
-  <si>
     <t>Coating</t>
   </si>
   <si>
@@ -537,9 +498,6 @@
     <t>Voegwijdte</t>
   </si>
   <si>
-    <t>Toevoegen voor beginpunt buisdeel als eindpunt buisdeel</t>
-  </si>
-  <si>
     <t>Hoekverdraaiing</t>
   </si>
   <si>
@@ -561,9 +519,6 @@
     <t>Y-stuk en andere verbindingsstukken onderdeel van leidingsegement</t>
   </si>
   <si>
-    <t>Alle Verbindingsstukken toevoegen als deel van leidingsegment</t>
-  </si>
-  <si>
     <t>Missende appendages toevoegen</t>
   </si>
   <si>
@@ -594,9 +549,6 @@
     <t xml:space="preserve">dit is een lastige inderdaad, omdat de beoordeling van een risicoklasse zeer organisatie-afhankelijk is en bovendien mis je de argumentatie van diie beoordeling. </t>
   </si>
   <si>
-    <t>is deze liner anders dan de linings die we al kennen? Hoort ie niet als subtype van lining? Zo ja, dan de orientatie verplaatsen naar supertype Lining</t>
-  </si>
-  <si>
     <t>is gewoon een puntobject dat onderdeel kan zijn van van een leiding</t>
   </si>
   <si>
@@ -612,9 +564,6 @@
     <t>zie opmerkng op regel 40</t>
   </si>
   <si>
-    <t>geen maximaal gemeten?</t>
-  </si>
-  <si>
     <t>wat betekent 'oorspronkelijk'?</t>
   </si>
   <si>
@@ -634,6 +583,99 @@
   </si>
   <si>
     <t>Energieverlies coëfficiënten voor lokale verliezen</t>
+  </si>
+  <si>
+    <t>Mangat</t>
+  </si>
+  <si>
+    <t>Toevoegen voegwijdte van de verbinding voor beginpunt buisdeel en eindpunt buisdeel</t>
+  </si>
+  <si>
+    <t>Wijze van inwinning + datum voor buisdeel</t>
+  </si>
+  <si>
+    <t>buisdeel gemiddelde</t>
+  </si>
+  <si>
+    <t>Minimale wanddikte buisdeel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Bij aanleg </t>
+  </si>
+  <si>
+    <t>Oorspronkelijke wanddikte bij aanleg</t>
+  </si>
+  <si>
+    <t>geen maximaal gemeten? Doorgaans is dat niet maatgevend</t>
+  </si>
+  <si>
+    <t>[bar] xsd:float</t>
+  </si>
+  <si>
+    <t>Kenmerk van mechanische leidingen. Gaat nu alleen nog om verhoogd risico bij ontgraven Ja/Nee. Aanpassen naar 'Risicoklasse'? Hoe wil je dat generiek maken dat het nuttig is uit te wisselen? Je kan een leiding wel deel uit laten maken van een risicogebied (met b.v. een dijk, watergang, spoorlijn, etc.). Dan is de beoordeling iig reproduceerbaar</t>
+  </si>
+  <si>
+    <t>is deze liner anders dan de linings die we al kennen? Hoort ie niet als subtype van lining? Zo ja, dan de orientatie verplaatsen naar supertype Lining. Lijkt me goed plan!</t>
+  </si>
+  <si>
+    <t>Buisdeel heeft datum van aanleg (begindatum) en einddatum, dus kan gespecificeerd worden.</t>
+  </si>
+  <si>
+    <t>Minimaal benodigde wanddikte (maatstaf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In geval van calamiteit is het gewenst het afvoerend debiet te weten </t>
+  </si>
+  <si>
+    <t>Nadenken of het mogelijk is risicoklassen plaats te geven</t>
+  </si>
+  <si>
+    <t>Relining toevoegen, zonder dat oorspronkelijke leidinggegevens overschreven worden</t>
+  </si>
+  <si>
+    <t>Inzichtelijk maken waar reparaties aan een leiding zijn gemaakt</t>
+  </si>
+  <si>
+    <t>Repartieklem bestaat nog niet. Moet ook voorzien worden van orientatie, zodat locatie kan worden vastgelegd. Behoefte aan meer typen reparaties?</t>
+  </si>
+  <si>
+    <t>Inzichtelijk maken waar een buisdeel vervangen is</t>
+  </si>
+  <si>
+    <t>Leidingcoating</t>
+  </si>
+  <si>
+    <t>Voegwijdte verbinding</t>
+  </si>
+  <si>
+    <t>Draadbreuk</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>In wat voor eenheid uitdrukken?</t>
+  </si>
+  <si>
+    <t>Risicoklasse?</t>
+  </si>
+  <si>
+    <t>Toevoegen wanddikte</t>
+  </si>
+  <si>
+    <t>Toevoegen persleidingincidenten</t>
+  </si>
+  <si>
+    <t>Alle verbindingsstukken toevoegen als deel van leidingsegment</t>
+  </si>
+  <si>
+    <t>Wel al  aanwezig bij drukriolering. Definitie: Opening in leiding om toegang te geven. Veelal omgeven door een put.</t>
+  </si>
+  <si>
+    <t>STUIP model conform Wouter, Johan en Marinus</t>
+  </si>
+  <si>
+    <t>Wordt nog uitgewerkt.</t>
   </si>
 </sst>
 </file>
@@ -671,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,8 +726,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -693,26 +741,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,7 +1172,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1158,1067 +1284,1211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923A1064-2E2D-45EF-9F4D-B4C96C380D17}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F36" sqref="A36:F36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="C24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="E24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="D29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="B30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="H31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="H32" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="H33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="H34" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="D47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H53" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="B68" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
-      </c>
-      <c r="E44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D45" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H51" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" t="s">
-        <v>44</v>
-      </c>
-      <c r="H52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-      <c r="H54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" t="s">
-        <v>160</v>
-      </c>
-      <c r="E57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" t="s">
-        <v>83</v>
-      </c>
-      <c r="C59" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" t="s">
-        <v>170</v>
-      </c>
-      <c r="E60" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>169</v>
-      </c>
-      <c r="D61" t="s">
-        <v>170</v>
-      </c>
-      <c r="E61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" t="s">
-        <v>172</v>
-      </c>
-      <c r="C62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>177</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="B69" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>196</v>
-      </c>
-      <c r="D66" t="s">
-        <v>197</v>
-      </c>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="D69" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:E29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G22" r:id="rId1" xr:uid="{C8BBC015-4402-48A8-8956-148D59FF5EE1}"/>

--- a/docs/InhoudGWSWpersleidingen_V1_1.xlsx
+++ b/docs/InhoudGWSWpersleidingen_V1_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\projecten_p4uw\RIONED36 (GWSW modellering)\GWSW persleidingen\GitHub\gwsw-persleidingen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EA672D-529F-46EB-AC89-F2B7E6B4C7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F152B3C5-30E3-4172-B6BF-7650F7D52C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,9 +426,6 @@
     <t>Minimaal benodigde wanddikte</t>
   </si>
   <si>
-    <t>Moet nog toegevoegd worden, obv NEN 3650:2020</t>
-  </si>
-  <si>
     <t>Aslasten volges NEN 3650-1:2012 Figuur C.16 of https://www.riool.net/applicaties/minimale-wanddikte-voor-persleidingen/toelichting-gebruik-grafieken</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>Wordt nog uitgewerkt.</t>
+  </si>
+  <si>
+    <t>Moet nog toegevoegd worden, obv NEN 3650:2020, zie ook https://www.riool.net/applicaties/minimale-wanddikte-voor-persleidingen</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1284,10 +1284,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923A1064-2E2D-45EF-9F4D-B4C96C380D17}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1718,7 @@
         <v>125</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1743,14 +1746,14 @@
         <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F31" s="4"/>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1760,14 +1763,14 @@
         <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1777,14 +1780,14 @@
         <v>80</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="4"/>
       <c r="H33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1794,14 +1797,14 @@
         <v>78</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="7"/>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1842,12 +1845,12 @@
         <v>85</v>
       </c>
       <c r="H36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>83</v>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>83</v>
@@ -1899,28 +1902,28 @@
     </row>
     <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>114</v>
@@ -1936,12 +1939,12 @@
         <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>83</v>
@@ -1954,15 +1957,15 @@
         <v>44</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>8</v>
@@ -1977,7 +1980,7 @@
         <v>44</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,9 +2021,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>83</v>
@@ -2035,53 +2038,53 @@
         <v>44</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="H46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="E47" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="H48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>83</v>
@@ -2096,36 +2099,36 @@
         <v>83</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>83</v>
@@ -2135,15 +2138,15 @@
         <v>44</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>40</v>
@@ -2156,10 +2159,10 @@
         <v>44</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2168,7 +2171,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>25</v>
@@ -2177,10 +2180,10 @@
         <v>44</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2189,7 +2192,7 @@
         <v>83</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>25</v>
@@ -2198,7 +2201,7 @@
         <v>44</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2207,7 +2210,7 @@
         <v>83</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>25</v>
@@ -2216,36 +2219,36 @@
         <v>44</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>83</v>
@@ -2257,33 +2260,33 @@
         <v>44</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>83</v>
@@ -2295,18 +2298,18 @@
         <v>44</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>25</v>
@@ -2315,107 +2318,107 @@
         <v>44</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="D61" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="E62" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="E63" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2425,7 +2428,7 @@
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -2433,40 +2436,40 @@
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="10" t="s">
+      <c r="D69" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="E69" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="E69" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2514,7 +2517,7 @@
     <hyperlink ref="G23" r:id="rId21" xr:uid="{A0C4387B-1739-494A-B6E1-97A7C720D171}"/>
     <hyperlink ref="G24" r:id="rId22" xr:uid="{8E04E129-4BC6-4D7D-BA3B-85CFD9A68DD6}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="27" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/docs/InhoudGWSWpersleidingen_V1_1.xlsx
+++ b/docs/InhoudGWSWpersleidingen_V1_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\projecten_p4uw\RIONED36 (GWSW modellering)\GWSW persleidingen\GitHub\gwsw-persleidingen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F152B3C5-30E3-4172-B6BF-7650F7D52C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F2438-9FC3-4F53-854B-97F2FEDFE53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="221">
   <si>
     <t>Persleidingsysteem</t>
   </si>
@@ -549,9 +549,6 @@
     <t>is gewoon een puntobject dat onderdeel kan zijn van van een leiding</t>
   </si>
   <si>
-    <t>dit lijkt me geen kenmerk dat je op instantie niveau wilt vastleggen. Geldt voor de klasse of producttype (dat ding dat je van de fabrikant kunt kopen. Gebruiiken we nog niet iini gwsw maar wordt elders wel gebruikt)</t>
-  </si>
-  <si>
     <t>ik snap deze regel niet. Waarover gaat het precies?</t>
   </si>
   <si>
@@ -564,12 +561,6 @@
     <t>wat betekent 'oorspronkelijk'?</t>
   </si>
   <si>
-    <t>welke gemiddelde? Het gemiddelde per metiing? Het gemiddelde in de tijd van min/gem/max?</t>
-  </si>
-  <si>
-    <t>wat wordt hier bedoeld?</t>
-  </si>
-  <si>
     <t>Lokale verliezen appendages</t>
   </si>
   <si>
@@ -591,9 +582,6 @@
     <t>Wijze van inwinning + datum voor buisdeel</t>
   </si>
   <si>
-    <t>buisdeel gemiddelde</t>
-  </si>
-  <si>
     <t>Minimale wanddikte buisdeel</t>
   </si>
   <si>
@@ -676,6 +664,42 @@
   </si>
   <si>
     <t>Moet nog toegevoegd worden, obv NEN 3650:2020, zie ook https://www.riool.net/applicaties/minimale-wanddikte-voor-persleidingen</t>
+  </si>
+  <si>
+    <t>Lekkage</t>
+  </si>
+  <si>
+    <t>Gasophoping</t>
+  </si>
+  <si>
+    <t>Welke eenheid? Xylem heeft het over small (0-7.5l/min), medium (7-37.5l/min) of large (&gt;37.5l/min)</t>
+  </si>
+  <si>
+    <t>&lt;--met wouter besproken, minimaal benodigde wanddikte vastleggen, maar onderliggende ingredienten voor berekening, want kan varieren per beheerder / in de tijd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;-- besproken, is goed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Maximaal gemeten</t>
+  </si>
+  <si>
+    <t>Gemiddelde wanddikte buisdeel</t>
+  </si>
+  <si>
+    <t>Maximale wanddikte buisdeel</t>
+  </si>
+  <si>
+    <t>Ja/Nee waarneming?</t>
+  </si>
+  <si>
+    <t>Ovaliteit</t>
+  </si>
+  <si>
+    <t>is de verhouding tussen breedte en hoogte, dus gedekt</t>
+  </si>
+  <si>
+    <t>Vervuiling</t>
   </si>
 </sst>
 </file>
@@ -775,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -839,6 +863,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1287,10 +1316,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,7 +1775,7 @@
         <v>76</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>44</v>
@@ -1763,7 +1792,7 @@
         <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>44</v>
@@ -1780,7 +1809,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>44</v>
@@ -1797,7 +1826,7 @@
         <v>78</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>44</v>
@@ -1850,7 +1879,7 @@
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>83</v>
@@ -1868,7 +1897,7 @@
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>83</v>
@@ -1902,20 +1931,20 @@
     </row>
     <row r="40" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H40" t="s">
         <v>168</v>
@@ -1923,7 +1952,7 @@
     </row>
     <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>114</v>
@@ -1939,12 +1968,12 @@
         <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>83</v>
@@ -1957,7 +1986,7 @@
         <v>44</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H42" t="s">
         <v>169</v>
@@ -1965,7 +1994,7 @@
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>8</v>
@@ -1980,7 +2009,7 @@
         <v>44</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,7 +2052,7 @@
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>83</v>
@@ -2038,10 +2067,10 @@
         <v>44</v>
       </c>
       <c r="F46" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="H46" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2060,7 +2089,7 @@
         <v>129</v>
       </c>
       <c r="H47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2079,7 +2108,7 @@
         <v>134</v>
       </c>
       <c r="H48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2099,7 +2128,7 @@
         <v>83</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2120,7 +2149,7 @@
         <v>141</v>
       </c>
       <c r="H50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2140,13 +2169,16 @@
       <c r="F51" s="9" t="s">
         <v>140</v>
       </c>
+      <c r="G51" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="H51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>40</v>
@@ -2159,10 +2191,10 @@
         <v>44</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2171,7 +2203,7 @@
         <v>83</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>25</v>
@@ -2180,10 +2212,10 @@
         <v>44</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2201,154 +2233,149 @@
         <v>44</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="A55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H55" t="s">
-        <v>175</v>
+      <c r="E55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="D57" s="10"/>
       <c r="E57" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="C58" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="9" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="C60" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="E60" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="10" t="s">
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H60" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="E61" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" s="10" t="s">
+      <c r="B62" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>155</v>
@@ -2361,100 +2388,98 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="10" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F63" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B66" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="11" t="s">
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>83</v>
@@ -2462,31 +2487,99 @@
       <c r="C69" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D69" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="D69" s="10"/>
       <c r="E69" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A70" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/InhoudGWSWpersleidingen_V1_1.xlsx
+++ b/docs/InhoudGWSWpersleidingen_V1_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\projecten_p4uw\RIONED36 (GWSW modellering)\GWSW persleidingen\GitHub\gwsw-persleidingen\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C664A64-3865-4F46-8B96-8628FFAFECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5B2E0F-0502-43E3-B31A-1EA2580BE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchie" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="228">
   <si>
     <t>Persleidingsysteem</t>
   </si>
@@ -709,9 +709,6 @@
   </si>
   <si>
     <t>Algemeen</t>
-  </si>
-  <si>
-    <t>nee</t>
   </si>
   <si>
     <t>Voorziet Risicogebied al in de behoefte? Kunnen ook b.v. dijken of spoorlijnen omvatten. Welicht constructieonderdelen ook onderdeel maken van risicogebied (putten zitten er ook al bij)</t>
@@ -1343,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,7 +2042,7 @@
         <v>44</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
@@ -2215,7 +2212,7 @@
     </row>
     <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
@@ -2322,7 +2319,7 @@
         <v>44</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>211</v>
@@ -2431,7 +2428,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>201</v>
@@ -2519,7 +2516,7 @@
     </row>
     <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>195</v>
@@ -2542,7 +2539,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>150</v>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>196</v>
@@ -2708,7 +2705,7 @@
     </row>
     <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>207</v>
@@ -2723,7 +2720,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>208</v>
@@ -2738,7 +2735,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>218</v>
@@ -2753,7 +2750,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>216</v>
@@ -2776,7 +2773,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="8" t="s">

--- a/docs/InhoudGWSWpersleidingen_V1_1.xlsx
+++ b/docs/InhoudGWSWpersleidingen_V1_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\projecten_p4uw\RIONED36 (GWSW modellering)\GWSW persleidingen\GitHub\gwsw-persleidingen\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5B2E0F-0502-43E3-B31A-1EA2580BE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C76F381A-42EF-4A5F-88EA-F8C21B3420F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchie" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="229">
   <si>
     <t>Persleidingsysteem</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>Soms worden leidingen beheerd van andere organisaties, b.v. waterschap beheert leidingen van een gemeente. REEDS VOORZIEN</t>
+  </si>
+  <si>
+    <t>&lt;-- reeds vorozien</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1226,30 +1231,30 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -1267,7 +1272,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1295,7 +1300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1340,27 +1345,27 @@
   </sheetPr>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="68.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="68.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>219</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
@@ -1420,7 +1425,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4.5</v>
       </c>
@@ -1458,7 +1463,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>4</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>5</v>
       </c>
@@ -1496,7 +1501,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>6</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>7</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>8</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>9</v>
       </c>
@@ -1572,7 +1577,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>10</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>11</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>12</v>
       </c>
@@ -1628,7 +1633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>13</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>14</v>
       </c>
@@ -1668,7 +1673,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>15</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>16</v>
       </c>
@@ -1708,7 +1713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>17</v>
       </c>
@@ -1728,7 +1733,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>18</v>
       </c>
@@ -1748,7 +1753,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>18.5</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>19</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>20</v>
       </c>
@@ -1802,10 +1807,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="24" t="s">
         <v>15</v>
@@ -1817,8 +1822,8 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>220</v>
       </c>
       <c r="B29" s="15" t="s">
@@ -1844,8 +1849,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>221</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -1865,8 +1870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="27"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -1883,8 +1887,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="27"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
@@ -1901,8 +1904,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="27"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
@@ -1919,8 +1921,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="27"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8" t="s">
@@ -1937,8 +1938,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>222</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -1957,9 +1958,12 @@
       <c r="G35" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+      <c r="H35" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -1984,8 +1988,8 @@
         <v>165</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -2005,8 +2009,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>222</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -2026,8 +2030,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>223</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -2044,9 +2048,12 @@
       <c r="G39" s="9" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+      <c r="H39" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>222</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -2069,8 +2076,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>223</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -2093,8 +2100,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:9" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>223</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -2117,8 +2124,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>223</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -2140,8 +2147,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>221</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -2161,8 +2168,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>122</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -2184,8 +2191,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -2210,8 +2217,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="4"/>
@@ -2232,8 +2239,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="7"/>
@@ -2254,7 +2261,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -2277,7 +2284,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -2301,7 +2308,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>222</v>
       </c>
@@ -2328,9 +2335,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>200</v>
@@ -2352,7 +2359,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="C53" s="3" t="s">
         <v>83</v>
@@ -2373,7 +2380,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="C54" s="3" t="s">
         <v>83</v>
@@ -2391,7 +2398,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
@@ -2407,7 +2414,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="8" t="s">
         <v>83</v>
@@ -2426,7 +2433,7 @@
       </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>225</v>
       </c>
@@ -2447,7 +2454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -2470,7 +2477,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -2491,7 +2498,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -2514,7 +2521,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>226</v>
       </c>
@@ -2537,7 +2544,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -2560,7 +2567,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="s">
@@ -2576,7 +2583,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>226</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>223</v>
       </c>
@@ -2620,7 +2627,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -2639,7 +2646,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" s="4"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
@@ -2649,7 +2656,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8" t="s">
@@ -2659,7 +2666,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>223</v>
       </c>
@@ -2680,7 +2687,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>221</v>
       </c>
@@ -2703,7 +2710,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>226</v>
       </c>
@@ -2713,12 +2720,14 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G71" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>226</v>
       </c>
@@ -2728,12 +2737,14 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G72" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>226</v>
       </c>
@@ -2743,12 +2754,14 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G73" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -2771,7 +2784,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>226</v>
       </c>
